--- a/testData/msl38/proposalsTest3_binomial/2023.002A.N.v4.create_subgenus_move_sp_create_sp.xlsx
+++ b/testData/msl38/proposalsTest3_binomial/2023.002A.N.v4.create_subgenus_move_sp_create_sp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Documents/ICTV/validate_proposals/testData/proposalsTest3_binomial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Documents/ICTV/load_msl/testData/msl38/proposalsTest3_binomial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2040E-26E2-E74C-B1F9-00806328BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED73FE0-ACB7-1548-8B02-CB66DAA45316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1820" windowWidth="34560" windowHeight="18560" activeTab="1" xr2:uid="{94A59F7B-7A42-3941-BED7-E7ACB004C4FA}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29920" windowHeight="18560" activeTab="1" xr2:uid="{94A59F7B-7A42-3941-BED7-E7ACB004C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -1667,9 +1667,6 @@
     <t>Heterocapsa circularisquama DNA virus 01</t>
   </si>
   <si>
-    <t>Create NotBinomial Rhizidiomyces virus</t>
-  </si>
-  <si>
     <t>follows biniomial: renames virus when move into a new genus</t>
   </si>
   <si>
@@ -1679,12 +1676,6 @@
     <t>follows biniomial: starts with genus name</t>
   </si>
   <si>
-    <t>NewRhizidiovirus good binomail move virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewRhizidiovirus Create Binoimal virus </t>
-  </si>
-  <si>
     <t>break binomial naming for all the species in a genus. Whee!</t>
   </si>
   <si>
@@ -1719,6 +1710,15 @@
   </si>
   <si>
     <t>CheravirusBadBinomial</t>
+  </si>
+  <si>
+    <t>NewRhizidiovirus good-binomail-move-virus</t>
+  </si>
+  <si>
+    <t>Create-NotBinomial-Rhizidiomyces-virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewRhizidiovirus Create-Binoimal-virus </t>
   </si>
 </sst>
 </file>
@@ -2279,9 +2279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2319,7 +2319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2425,7 +2425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2567,7 +2567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2609,9 +2609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2286CF-D255-A24B-BEAA-53A574258AAC}">
   <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN12" sqref="AN12"/>
+      <selection pane="bottomLeft" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2959,7 @@
         <v>119</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AL5" s="15" t="s">
         <v>34</v>
@@ -2968,7 +2968,7 @@
         <v>28</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
@@ -3004,7 +3004,7 @@
         <v>119</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="AL8" s="15" t="s">
         <v>27</v>
@@ -3050,61 +3050,61 @@
         <v>119</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="P11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="V11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="X11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="Z11" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AL11" s="15" t="s">
         <v>37</v>
@@ -3113,51 +3113,51 @@
         <v>35</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="P12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="V12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="X12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="Z12" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AL12" s="15" t="s">
         <v>34</v>
@@ -3166,7 +3166,7 @@
         <v>35</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
